--- a/rider_block_summary.xlsx
+++ b/rider_block_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,138 +453,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2918</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>5010</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>5593</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>17-04-2025-------------------not blocking due to new kaptaan update</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>5819</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>17-04-2025-------------------not blocking due to new kaptaan update</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6298</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>9115</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>10290</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>17-04-2025-------------------not blocking due to new kaptaan update</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>10591</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>20-03-2025</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>10619</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10885</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
           <t>10891</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>21-04-2025</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/rider_block_summary.xlsx
+++ b/rider_block_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,15 +453,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10891</t>
+          <t>10272</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21-04-2025</t>
+          <t>17-04-2025-------------------not blocking due to new kaptaan update, 18-04-2025</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10225</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>18-04-2025</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10280</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>18-04-2025</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>

--- a/rider_block_summary.xlsx
+++ b/rider_block_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,46 +453,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10272</t>
+          <t>5949</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>17-04-2025-------------------not blocking due to new kaptaan update, 18-04-2025</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10225</t>
+          <t>3519</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>18-04-2025</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>10280</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>18-04-2025</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
